--- a/src/main/resources/accountPeriodExcelTemplates/merchantAccount_SouthWestChina.xlsx
+++ b/src/main/resources/accountPeriodExcelTemplates/merchantAccount_SouthWestChina.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="月账单" sheetId="2" r:id="rId1"/>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -970,8 +970,36 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -994,13 +1022,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>822900</xdr:colOff>
+      <xdr:colOff>818709</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>37467</xdr:rowOff>
+      <xdr:rowOff>56486</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1014,7 +1042,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="209550" y="4486275"/>
-          <a:ext cx="3528000" cy="5295267"/>
+          <a:ext cx="3523809" cy="5314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1281,7 +1309,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1291,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
